--- a/auxi/map.xlsx
+++ b/auxi/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\aguila\auxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F751D1-13C5-48C3-9352-8A754BDC92A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78418ACC-07EA-46B9-A498-C6F8B76A73FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{0DDA3FFA-C40A-49D1-A7DC-9AB00013439C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="130">
   <si>
     <t>Australia</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>WB</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
 </sst>
 </file>
@@ -1588,9 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21164EE1-A342-4938-98BB-770A6DB697C4}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -2249,52 +2250,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537C291-91A5-4511-9EEE-4A0D71ED7397}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/auxi/map.xlsx
+++ b/auxi/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\aguila\auxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78418ACC-07EA-46B9-A498-C6F8B76A73FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBC9B84-E482-427C-ADD9-D6F85C065E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{0DDA3FFA-C40A-49D1-A7DC-9AB00013439C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="353">
   <si>
     <t>Australia</t>
   </si>
@@ -425,6 +425,675 @@
   </si>
   <si>
     <t>drop</t>
+  </si>
+  <si>
+    <t>Customs and other import duties (% of tax revenue)</t>
+  </si>
+  <si>
+    <t>Customs and other import duties (current LCU)</t>
+  </si>
+  <si>
+    <t>Exports as a capacity to import (constant LCU)</t>
+  </si>
+  <si>
+    <t>High-technology exports (% of manufactured exports)</t>
+  </si>
+  <si>
+    <t>High-technology exports (current US$)</t>
+  </si>
+  <si>
+    <t>ICT goods exports (% of total goods exports)</t>
+  </si>
+  <si>
+    <t>ICT service exports (BoP, current US$)</t>
+  </si>
+  <si>
+    <t>Computer, communications and other services (% of commercial service exports)</t>
+  </si>
+  <si>
+    <t>WITS completo 2017</t>
+  </si>
+  <si>
+    <t>Exports of goods and services (annual % growth)</t>
+  </si>
+  <si>
+    <t>HH Market concentration index</t>
+  </si>
+  <si>
+    <t>Imports of goods and services (annual % growth)</t>
+  </si>
+  <si>
+    <t>Net barter terms of trade index (2000 = 100)</t>
+  </si>
+  <si>
+    <t>Number of export partners</t>
+  </si>
+  <si>
+    <t>Number of import partners</t>
+  </si>
+  <si>
+    <t>Number of products imported</t>
+  </si>
+  <si>
+    <t>Taxes on international trade (% of revenue)</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>ControlofCorruption</t>
+  </si>
+  <si>
+    <t>GovernmentEffectiveness</t>
+  </si>
+  <si>
+    <t>RegulatoryQuality</t>
+  </si>
+  <si>
+    <t>RuleofLaw</t>
+  </si>
+  <si>
+    <t>VoiceandAccountability</t>
+  </si>
+  <si>
+    <t>NumSrc</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>StdErr</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Alternative dispute resolution (0-3) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Attorney fees (% of claim)</t>
+  </si>
+  <si>
+    <t>Building quality control index (0-15) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Case management (0-6) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Commencement of proceedings index (0-3) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Communication of tariffs and tariff changes (0-1) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Cost - Men (% of income per capita)</t>
+  </si>
+  <si>
+    <t>Cost - Women (% of income per capita)</t>
+  </si>
+  <si>
+    <t>Cost (% of claim)</t>
+  </si>
+  <si>
+    <t>Cost (% of estate)</t>
+  </si>
+  <si>
+    <t>Cost (% of income per capita)</t>
+  </si>
+  <si>
+    <t>Cost (% of property value)</t>
+  </si>
+  <si>
+    <t>Cost (% of Warehouse value)</t>
+  </si>
+  <si>
+    <t>Cost to export (US$ per container deflated) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Cost to export: Border compliance (USD) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Cost to export: Documentary compliance (USD) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Cost to import (US$ per container deflated) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Cost to import: Border compliance (USD) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Cost to import: Documentary compliance (USD) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Court automation (0-4) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Court fees (% of claim)</t>
+  </si>
+  <si>
+    <t>Court structure and proceedings (0-5) (DB16 methodology)</t>
+  </si>
+  <si>
+    <t>Court structure and proceedings (0-5) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Credit bureau coverage (% of adults)</t>
+  </si>
+  <si>
+    <t>Credit registry coverage (% of adults)</t>
+  </si>
+  <si>
+    <t>Creditor participation index (0-4) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Depth of credit information index (0-6) (DB05-14 methodology)</t>
+  </si>
+  <si>
+    <t>Depth of credit information index (0-8) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Documents to export (number) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Documents to import (number) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Ease of doing business rank (DB19)</t>
+  </si>
+  <si>
+    <t>Ease of doing business score  (DB10-14 methodology)</t>
+  </si>
+  <si>
+    <t>Ease of doing business score (DB15 methodology)</t>
+  </si>
+  <si>
+    <t>Ease of doing business score (DB16 methodology)</t>
+  </si>
+  <si>
+    <t>Ease of doing business score (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Ease of shareholder suits index (0-10) (DB06-14 methodology)</t>
+  </si>
+  <si>
+    <t>Ease of shareholder suits index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Enforcement fees (% of claim)</t>
+  </si>
+  <si>
+    <t>Enforcement of judgment (days)</t>
+  </si>
+  <si>
+    <t>Equal access to property rights index (-2-0) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Extent of conflict of interest regulation index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Extent of corporate transparency index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Extent of director liability index (0-10)</t>
+  </si>
+  <si>
+    <t>Extent of disclosure index (0-10)</t>
+  </si>
+  <si>
+    <t>Extent of ownership and control index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Extent of shareholder governance index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Extent of shareholder rights index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Filing and service (days)</t>
+  </si>
+  <si>
+    <t>Financial deterrents aimed at limiting outages (0-1) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Geographic coverage index (0-8) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Getting Credit total score (DB05-14 methodology)</t>
+  </si>
+  <si>
+    <t>Getting Credit total score (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Labor tax and contributions (% of profit)</t>
+  </si>
+  <si>
+    <t>Land dispute resolution index (0-8) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Liability and insurance regimes index (0-2) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Management of debtor's assets index (0-6) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Mechanisms for monitoring outages (0-1) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Mechanisms for restoring service (0-1) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Minimum outage time (in minutes)  (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Other taxes (% of profit)</t>
+  </si>
+  <si>
+    <t>Outcome (0 as piecemeal sale and 1 as going concern)</t>
+  </si>
+  <si>
+    <t>Paid-in Minimum capital (% of income per capita)</t>
+  </si>
+  <si>
+    <t>Payments (number per year)</t>
+  </si>
+  <si>
+    <t>Price of electricity (US cents per kWh) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Procedures - Men (number)</t>
+  </si>
+  <si>
+    <t>Procedures - Women (number)</t>
+  </si>
+  <si>
+    <t>Procedures (number)...176</t>
+  </si>
+  <si>
+    <t>Procedures (number)...30</t>
+  </si>
+  <si>
+    <t>Procedures (number)...47</t>
+  </si>
+  <si>
+    <t>Procedures (number)...69</t>
+  </si>
+  <si>
+    <t>Professional certifications index (0-4) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Profit tax (% of profit)</t>
+  </si>
+  <si>
+    <t>Quality control after construction index (0-3) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Quality control before construction index (0-1) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Quality control during construction index (0-3) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Quality of building regulations index (0-2) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Quality of judicial processes index (0-18) (DB16 methodology)</t>
+  </si>
+  <si>
+    <t>Quality of judicial processes index (0-18) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Quality of land administration index (0-30) (DB16 methodology)</t>
+  </si>
+  <si>
+    <t>Quality of land administration index (0-30) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Rank-Dealing with construction permits (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Enforcing contracts (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Getting credit (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Getting electricity (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Paying taxes (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Protecting minority investors (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Registering property (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Resolving insolvency (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Starting a business (DB19)</t>
+  </si>
+  <si>
+    <t>Rank-Trading across borders (DB19)</t>
+  </si>
+  <si>
+    <t>Recovery rate (cents on the dollar)</t>
+  </si>
+  <si>
+    <t>Regulatory monitoring (0-1) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Reliability of infrastructure index (0-8) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Reliability of supply and transparency of tariff index (0-8) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Reorganization proceedings index (0-3) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Building quality control index (0-15) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Cost - Men (% of income per capita)</t>
+  </si>
+  <si>
+    <t>Score-Cost - Women (% of income per capita)</t>
+  </si>
+  <si>
+    <t>Score-Cost (% of claim)</t>
+  </si>
+  <si>
+    <t>Score-Cost (% of income per capita)</t>
+  </si>
+  <si>
+    <t>Score-Cost (% of property value)</t>
+  </si>
+  <si>
+    <t>Score-Cost (% of Warehouse value)</t>
+  </si>
+  <si>
+    <t>Score-Cost to export (US$ per container deflated) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Cost to export: Border compliance (USD) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Cost to export: Documentary compliance (USD) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Cost to import (US$ per container deflated) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Cost to import: Border compliance (USD) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Cost to import: Documentary compliance (USD) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Dealing with construction permits (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Dealing with construction permits (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Depth of credit information index (0-6) (DB05-14 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Depth of credit information index (0-8) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Documents to export (number) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Documents to import (number) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Ease of shareholder suits index (0-10) (DB06-14 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Ease of shareholder suits index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Enforcing contracts (DB04-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Enforcing contracts (DB16 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Enforcing contracts (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Extent of corporate transparency index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Extent of director liability index (0-10)</t>
+  </si>
+  <si>
+    <t>Score-Extent of disclosure index (0-10)</t>
+  </si>
+  <si>
+    <t>Score-Extent of ownership and control index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Extent of shareholder rights index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Getting credit (DB05-14 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Getting credit (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Getting electricity (DB10-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Getting electricity (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Paid-in Minimum capital (% of income per capita)</t>
+  </si>
+  <si>
+    <t>Score-Paying taxes (DB06-16 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Paying taxes (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Payments (number per year)</t>
+  </si>
+  <si>
+    <t>Score-Postfiling index (0-100) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Procedures - Men (number)</t>
+  </si>
+  <si>
+    <t>Score-Procedures - Women (number)</t>
+  </si>
+  <si>
+    <t>Score-Procedures (number)...192</t>
+  </si>
+  <si>
+    <t>Score-Procedures (number)...40</t>
+  </si>
+  <si>
+    <t>Score-Procedures (number)...61</t>
+  </si>
+  <si>
+    <t>Score-Procedures (number)...79</t>
+  </si>
+  <si>
+    <t>Score-Protecting minority investors (DB06-14 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Protecting minority investors (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Quality of judicial processes index (0-18) (DB16 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Quality of judicial processes index (0-18) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Quality of land administration index (0-30) (DB16 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Quality of land administration index with Gender(0-30)(DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Recovery rate (cents on the dollar)</t>
+  </si>
+  <si>
+    <t>Score-Registering property (DB05-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Registering property (DB16 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Registering property (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Reliability of supply and transparency of tariff index (0-8) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Resolving insolvency (DB04-14 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Resolving insolvency (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Starting a business</t>
+  </si>
+  <si>
+    <t>Score-Strength of insolvency framework index (0-16) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Strength of legal rights index (0-10) (DB05-14 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Strength of legal rights index (0-12) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Time - Men (days)</t>
+  </si>
+  <si>
+    <t>Score-Time - Women (days)</t>
+  </si>
+  <si>
+    <t>Score-Time (days)...193</t>
+  </si>
+  <si>
+    <t>Score-Time (days)...41</t>
+  </si>
+  <si>
+    <t>Score-Time (days)...62</t>
+  </si>
+  <si>
+    <t>Score-Time (days)...80</t>
+  </si>
+  <si>
+    <t>Score-Time (hours per year)</t>
+  </si>
+  <si>
+    <t>Score-Time to complete a corporate income tax correction (weeks) (DB17-19  methodology)</t>
+  </si>
+  <si>
+    <t>Score-Time to comply with a corporate income tax correction (hours) (DB17-19  methodology)</t>
+  </si>
+  <si>
+    <t>Score-Time to comply with VAT refund (hours) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Time to export (days) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Time to import (days) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Time to obtain VAT refund (weeks) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Score-Total tax and contribution rate (% of profit)</t>
+  </si>
+  <si>
+    <t>Strength of insolvency framework index (0-16) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Strength of investor protection index (0-10) (DB06-14 methodology)</t>
+  </si>
+  <si>
+    <t>Strength of legal rights index (0-10) (DB05-14 methodology)</t>
+  </si>
+  <si>
+    <t>Strength of legal rights index (0-12) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>Strength of minority investor protection index (0-10) (DB15-19 methodology)</t>
+  </si>
+  <si>
+    <t>System average interruption duration index (SAIDI) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>System average interruption frequency index (SAIFI) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Time - Men (days)</t>
+  </si>
+  <si>
+    <t>Time - Women (days)</t>
+  </si>
+  <si>
+    <t>Time (days)...177</t>
+  </si>
+  <si>
+    <t>Time (days)...31</t>
+  </si>
+  <si>
+    <t>Time (days)...48</t>
+  </si>
+  <si>
+    <t>Time (days)...70</t>
+  </si>
+  <si>
+    <t>Time (hours per year)</t>
+  </si>
+  <si>
+    <t>Time (years)</t>
+  </si>
+  <si>
+    <t>Time to complete a corporate income tax correction (weeks) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Time to comply with a corporate income tax correction (hours) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Time to comply with VAT refund (hours) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Time to export (days) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Time to import (days) (DB06-15 methodology)</t>
+  </si>
+  <si>
+    <t>Time to obtain VAT refund (weeks) (DB17-19 methodology)</t>
+  </si>
+  <si>
+    <t>Total duration and frequency of outages per customer a year (0-3) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Total tax and contribution rate (% of profit)</t>
+  </si>
+  <si>
+    <t>Transparency of information index (0-6) (DB16-19 methodology)</t>
+  </si>
+  <si>
+    <t>Trial and judgment (days)</t>
   </si>
 </sst>
 </file>
@@ -440,7 +1109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +1119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,9 +1141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2250,13 +2926,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537C291-91A5-4511-9EEE-4A0D71ED7397}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2313,6 +2993,2624 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
+        <v>158</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" t="s">
+        <v>158</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" t="s">
+        <v>158</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" t="s">
+        <v>158</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" t="s">
+        <v>158</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B131" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B132" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B135" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" t="s">
+        <v>158</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B138" t="s">
+        <v>158</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B140" t="s">
+        <v>158</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B142" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B145" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B146" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B152" t="s">
+        <v>158</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B159" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B161" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B162" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B163" t="s">
+        <v>158</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B164" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B165" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B166" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B167" t="s">
+        <v>158</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B168" t="s">
+        <v>158</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B169" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B170" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B171" t="s">
+        <v>158</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B172" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B173" t="s">
+        <v>158</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B174" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B175" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B176" t="s">
+        <v>158</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B177" t="s">
+        <v>158</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B178" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B179" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B180" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B181" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B182" t="s">
+        <v>158</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B183" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B184" t="s">
+        <v>158</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B185" t="s">
+        <v>158</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B186" t="s">
+        <v>158</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B187" t="s">
+        <v>158</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B188" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B189" t="s">
+        <v>158</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B190" t="s">
+        <v>158</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B191" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B192" t="s">
+        <v>158</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B193" t="s">
+        <v>158</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B194" t="s">
+        <v>158</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B195" t="s">
+        <v>158</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B196" t="s">
+        <v>158</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B197" t="s">
+        <v>158</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B199" t="s">
+        <v>158</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B200" t="s">
+        <v>158</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B201" t="s">
+        <v>158</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B202" t="s">
+        <v>158</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B203" t="s">
+        <v>158</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B204" t="s">
+        <v>158</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B205" t="s">
+        <v>158</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B206" t="s">
+        <v>158</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B207" t="s">
+        <v>158</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B208" t="s">
+        <v>158</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B209" t="s">
+        <v>158</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B210" t="s">
+        <v>158</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B211" t="s">
+        <v>158</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B212" t="s">
+        <v>158</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B213" t="s">
+        <v>158</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B214" t="s">
+        <v>158</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B215" t="s">
+        <v>158</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B216" t="s">
+        <v>158</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B217" t="s">
+        <v>158</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B218" t="s">
+        <v>158</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B219" t="s">
+        <v>158</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B220" t="s">
+        <v>158</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B221" t="s">
+        <v>158</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B222" t="s">
+        <v>158</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B223" t="s">
+        <v>158</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B224" t="s">
+        <v>158</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B225" t="s">
+        <v>158</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B226" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B227" t="s">
+        <v>158</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B228" t="s">
+        <v>158</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B229" t="s">
+        <v>158</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B230" t="s">
+        <v>158</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B231" t="s">
+        <v>158</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B232" t="s">
+        <v>158</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B233" t="s">
+        <v>158</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B234" t="s">
+        <v>158</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B235" t="s">
+        <v>158</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B236" t="s">
+        <v>158</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B237" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B238" t="s">
+        <v>158</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B239" t="s">
+        <v>158</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B240" t="s">
+        <v>158</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B241" t="s">
+        <v>158</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B242" t="s">
+        <v>158</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B243" t="s">
+        <v>158</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/auxi/map.xlsx
+++ b/auxi/map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\aguila\auxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBC9B84-E482-427C-ADD9-D6F85C065E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B15121-1C23-4201-923C-6F2D6E6C56DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{0DDA3FFA-C40A-49D1-A7DC-9AB00013439C}"/>
+    <workbookView xWindow="28690" yWindow="2500" windowWidth="15580" windowHeight="11740" activeTab="2" xr2:uid="{0DDA3FFA-C40A-49D1-A7DC-9AB00013439C}"/>
   </bookViews>
   <sheets>
     <sheet name="region_or" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="355">
   <si>
     <t>Australia</t>
   </si>
@@ -1094,13 +1094,19 @@
   </si>
   <si>
     <t>Trial and judgment (days)</t>
+  </si>
+  <si>
+    <t>RTA</t>
+  </si>
+  <si>
+    <t>Cumulative Number of RTAs in force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,8 +1114,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,8 +1142,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1137,14 +1157,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2926,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537C291-91A5-4511-9EEE-4A0D71ED7397}">
-  <dimension ref="A1:C243"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:C243"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="F233" sqref="F233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5611,6 +5641,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B244" t="s">
+        <v>353</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
